--- a/GMF_CB_measurements.xlsx
+++ b/GMF_CB_measurements.xlsx
@@ -13,6 +13,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of Second-Pass" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of Second-Pass Fixations" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duration of Second-Pass Fixations" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of visits to each text" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on text 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on text 2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on each task" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,11 +443,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of First-Pass</t>
@@ -928,6 +927,512 @@
       </c>
       <c r="B49" t="n">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on each task</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CB_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>359597</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CB_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>270624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CB_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>124974</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CB_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>419104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CB_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>148559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CB_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>296755</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CB_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>158395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CB_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>222974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CB_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>335620</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CB_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>188144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CB_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>159613</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CB_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>522583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CB_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>222187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CB_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>656769</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CB_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>319666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CB_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>301670</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CB_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>538201</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CB_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>204047</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CB_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>363098</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CB_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>535609</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CB_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>421395</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CB_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>451788</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CB_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>126202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CB_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>273747</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GMF_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>251820</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GMF_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>187141</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GMF_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>210312</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GMF_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>452776</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GMF_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>168754</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GMF_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>173021</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GMF_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>170185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GMF_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>378822</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GMF_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>626148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GMF_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>242833</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GMF_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>223004</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GMF_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>539900</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GMF_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>323245</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GMF_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>324823</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GMF_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>707214</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GMF_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>273520</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GMF_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>316890</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GMF_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>195946</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GMF_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>335054</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>GMF_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>216055</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GMF_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>298285</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GMF_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>427887</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>GMF_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>126052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GMF_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>162429</v>
       </c>
     </row>
   </sheetData>
@@ -950,11 +1455,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of First-Pass Fixations</t>
@@ -1461,11 +1961,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Duration of First-Pass Fixations</t>
@@ -1972,11 +2467,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of Second-Pass</t>
@@ -2483,11 +2973,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of Second-Pass Fixations</t>
@@ -2994,11 +3479,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Duration of Second-Pass Fixations</t>
@@ -3483,6 +3963,1524 @@
       </c>
       <c r="B49" t="n">
         <v>17880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Number of visits to each text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CB_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CB_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CB_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CB_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CB_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CB_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CB_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CB_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CB_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CB_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CB_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CB_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CB_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CB_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CB_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CB_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CB_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CB_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CB_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CB_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CB_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CB_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CB_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CB_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GMF_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GMF_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GMF_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GMF_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GMF_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GMF_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GMF_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GMF_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GMF_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GMF_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GMF_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GMF_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GMF_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GMF_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GMF_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GMF_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GMF_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GMF_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GMF_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>GMF_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GMF_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GMF_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>GMF_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GMF_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on text 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CB_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>187858</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CB_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>150898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CB_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CB_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>222119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CB_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>97522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CB_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>190899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CB_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CB_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CB_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>181209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CB_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>128823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CB_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CB_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>278833</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CB_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>116406</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CB_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>411504</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CB_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>133988</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CB_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>169671</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CB_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>273652</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CB_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>116896</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CB_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>181887</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CB_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>361622</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CB_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>215924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CB_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>233614</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CB_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>65698</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CB_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>158710</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GMF_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>142228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GMF_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>90482</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GMF_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>109530</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GMF_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>211358</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GMF_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92497</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GMF_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>76652</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GMF_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>81575</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GMF_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>185501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GMF_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>323259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GMF_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>125543</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GMF_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>117004</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GMF_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>201984</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GMF_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>119204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GMF_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>142505</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GMF_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>320743</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GMF_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>161439</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GMF_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>156812</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GMF_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>109345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GMF_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>145889</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>GMF_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>139900</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GMF_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>175889</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GMF_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>229965</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>GMF_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>64021</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GMF_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>90574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on text 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CB_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>171739</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CB_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>119726</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CB_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CB_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>196985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CB_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>51037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CB_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105856</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CB_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CB_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>120411</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CB_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>154411</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CB_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59321</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CB_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85442</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CB_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>243750</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CB_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>105781</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CB_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>245265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CB_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>185678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CB_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>131999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CB_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>264549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CB_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>87151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CB_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>181211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CB_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>173987</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CB_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>205471</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CB_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>218174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CB_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>60504</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CB_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>115037</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GMF_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>109592</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GMF_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>96659</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GMF_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100782</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GMF_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>241418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GMF_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>76257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GMF_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96369</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GMF_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>88610</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GMF_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>193321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GMF_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>302889</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GMF_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>117290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GMF_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GMF_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>337916</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GMF_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>204041</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GMF_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>182318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GMF_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>386471</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GMF_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>112081</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GMF_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>160078</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GMF_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>86601</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GMF_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>189165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>GMF_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>76155</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GMF_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>122396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GMF_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>197922</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>GMF_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>62031</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GMF_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>71855</v>
       </c>
     </row>
   </sheetData>
